--- a/Requerimientos/Casos de uso Inicial Primera Entrega/ExcelInventario.xlsx
+++ b/Requerimientos/Casos de uso Inicial Primera Entrega/ExcelInventario.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela\Desktop\Repositorio\RUNISTAC\trunk\Requerimientos\Casos de uso Inicial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela\Desktop\Repositorio\RUNISTAC\trunk\Requerimientos\Casos de uso Inicial Primera Entrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Inventario CU" sheetId="1" r:id="rId1"/>
+    <sheet name="Inventario CU Primera Entrega" sheetId="1" r:id="rId1"/>
+    <sheet name="Inventario CU Segunda Entrega" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Fase</t>
   </si>
@@ -90,6 +91,36 @@
   </si>
   <si>
     <t>CASOS DE USO FASE I -PROYECTO RUNISTAC</t>
+  </si>
+  <si>
+    <t>CUG0004-Registrar Póliza Caución</t>
+  </si>
+  <si>
+    <t>CUG0005-Aprobación Póliza Caución</t>
+  </si>
+  <si>
+    <t>CUG0006-Registrar Siniestro Póliza</t>
+  </si>
+  <si>
+    <t>CUG0007-Aprobación Siniestro Póliza Caución</t>
+  </si>
+  <si>
+    <t>CUG0008-Validar Matricula Inicial</t>
+  </si>
+  <si>
+    <t>CUG0009-Consulta CCM Ministerio</t>
+  </si>
+  <si>
+    <t>CUG0010-Consulta Runistac</t>
+  </si>
+  <si>
+    <t>CUG0011-Consulta CCM</t>
+  </si>
+  <si>
+    <t>CUG0012-Parametrización Tipo Anexo</t>
+  </si>
+  <si>
+    <t>CUG0015-Parametrización Aseguradoras</t>
   </si>
 </sst>
 </file>
@@ -154,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -172,6 +203,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +539,9 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="7">
+        <v>42779</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -521,7 +555,9 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="7">
+        <v>42779</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -535,7 +571,9 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="7">
+        <v>42779</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
@@ -549,7 +587,9 @@
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="7">
+        <v>42779</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
@@ -563,7 +603,9 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="7">
+        <v>42779</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
@@ -577,7 +619,9 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="7">
+        <v>42779</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
@@ -591,7 +635,9 @@
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="7">
+        <v>42779</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
@@ -605,7 +651,9 @@
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="7">
+        <v>42779</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
@@ -619,7 +667,9 @@
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="7">
+        <v>42779</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
@@ -633,7 +683,9 @@
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="7">
+        <v>42779</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
@@ -647,7 +699,9 @@
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="7">
+        <v>42779</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
@@ -661,7 +715,9 @@
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="7">
+        <v>42779</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
@@ -675,7 +731,9 @@
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="7">
+        <v>42779</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
@@ -689,7 +747,9 @@
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="7">
+        <v>42779</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
@@ -703,7 +763,9 @@
       <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="7">
+        <v>42779</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
@@ -714,4 +776,300 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>42797</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>42797</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>42797</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7">
+        <v>42797</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7">
+        <v>42797</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7">
+        <v>42797</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7">
+        <v>42797</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7">
+        <v>42797</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7">
+        <v>42797</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7">
+        <v>42797</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7">
+        <v>42797</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7">
+        <v>42797</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7">
+        <v>42797</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7">
+        <v>42797</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7">
+        <v>42797</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>